--- a/backend/DI-2018_19.xlsx
+++ b/backend/DI-2018_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\psi\psi003Project\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8FDE138-FF6E-4CDA-BDF8-8CF372457FCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA40E7-3BA6-408B-A881-345564CD8FB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23159D92-FC50-6140-A322-FCE0767EFB80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{23159D92-FC50-6140-A322-FCE0767EFB80}"/>
   </bookViews>
   <sheets>
     <sheet name="1º Ciclo" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1º Ciclo'!$A$1:$G$306</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2º Ciclo'!$A$1:$G$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2º Ciclo'!$A$1:$G$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9003,8 +9002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AAF17B-0068-8F40-9267-6E517F203AB2}">
   <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13007,6 +13006,7 @@
       <c r="F446" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G141" xr:uid="{C13D6062-7E62-4886-890A-0CF69E8D8AF9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
